--- a/gd/副本内容设计/副本配置内容规划.xlsx
+++ b/gd/副本内容设计/副本配置内容规划.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuuki\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
+    <workbookView xWindow="-1335" yWindow="180" windowWidth="28800" windowHeight="9165" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="普通本" sheetId="1" r:id="rId1"/>
+    <sheet name="挑战本" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
   <si>
     <t>副本ID</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -54,71 +50,377 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>dajie12</t>
+  </si>
+  <si>
+    <t>dajie13</t>
+  </si>
+  <si>
+    <t>dajie14</t>
+  </si>
+  <si>
+    <t>dajie15</t>
+  </si>
+  <si>
+    <t>dajie16</t>
+  </si>
+  <si>
+    <t>dajie17</t>
+  </si>
+  <si>
+    <t>dajie18</t>
+  </si>
+  <si>
+    <t>xiaoxiang12</t>
+  </si>
+  <si>
+    <t>xiaoxiang13</t>
+  </si>
+  <si>
+    <t>xiaoxiang14</t>
+  </si>
+  <si>
+    <t>xiaoxiang15</t>
+  </si>
+  <si>
+    <t>xiaoxiang16</t>
+  </si>
+  <si>
+    <t>xiaoxiang17</t>
+  </si>
+  <si>
+    <t>xiaoxiang18</t>
+  </si>
+  <si>
+    <t>小怪头像品质</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss头像品质</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级强化石
+装备进阶石
+武器
+衣服</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级强化石
+头盔
+戒指
+护腕
+护身符</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级强化石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级强化石，武器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶石，衣服</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服，头盔，初级强化石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服，护腕，初级强化石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>护腕，护身符，装备进阶石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>护腕，戒指，装备进阶石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiang22</t>
+  </si>
+  <si>
+    <t>xiaoxiang23</t>
+  </si>
+  <si>
+    <t>xiaoxiang25</t>
+  </si>
+  <si>
+    <t>xiaoxiang26</t>
+  </si>
+  <si>
+    <t>senlin11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>senlin12</t>
+  </si>
+  <si>
+    <t>senlin13</t>
+  </si>
+  <si>
+    <t>senlin14</t>
+  </si>
+  <si>
+    <t>senlin15</t>
+  </si>
+  <si>
+    <t>senlin16</t>
+  </si>
+  <si>
+    <t>senlin17</t>
+  </si>
+  <si>
+    <t>senlin18</t>
+  </si>
+  <si>
+    <t>dajie21</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dajie22</t>
+  </si>
+  <si>
+    <t>dajie23</t>
+  </si>
+  <si>
+    <t>dajie25</t>
+  </si>
+  <si>
+    <t>dajie26</t>
+  </si>
+  <si>
+    <t>dajie27</t>
+  </si>
+  <si>
+    <t>xiaoxiang21</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiang27</t>
+  </si>
+  <si>
+    <t>xiaoxiang28</t>
+  </si>
+  <si>
+    <t>senlin21</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>senlin22</t>
+  </si>
+  <si>
+    <t>senlin23</t>
+  </si>
+  <si>
+    <t>senlin25</t>
+  </si>
+  <si>
+    <t>senlin26</t>
+  </si>
+  <si>
+    <t>senlin27</t>
+  </si>
+  <si>
+    <t>中级强化石
+装备进阶石
+头盔
+护腕</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huoshan21</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huoshan22</t>
+  </si>
+  <si>
+    <t>huoshan23</t>
+  </si>
+  <si>
+    <t>huoshan24</t>
+  </si>
+  <si>
+    <t>huoshan25</t>
+  </si>
+  <si>
+    <t>huoshan26</t>
+  </si>
+  <si>
+    <t>huoshan27</t>
+  </si>
+  <si>
+    <t>huoshan28</t>
+  </si>
+  <si>
+    <t>初级强化石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器，初级强化石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器，初级强化石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服，装备进阶石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>dajie11</t>
-  </si>
-  <si>
-    <t>dajie12</t>
-  </si>
-  <si>
-    <t>dajie13</t>
-  </si>
-  <si>
-    <t>dajie14</t>
-  </si>
-  <si>
-    <t>dajie15</t>
-  </si>
-  <si>
-    <t>dajie16</t>
-  </si>
-  <si>
-    <t>dajie17</t>
-  </si>
-  <si>
-    <t>dajie18</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>xiaoxiang11</t>
-  </si>
-  <si>
-    <t>xiaoxiang12</t>
-  </si>
-  <si>
-    <t>xiaoxiang13</t>
-  </si>
-  <si>
-    <t>xiaoxiang14</t>
-  </si>
-  <si>
-    <t>xiaoxiang15</t>
-  </si>
-  <si>
-    <t>xiaoxiang16</t>
-  </si>
-  <si>
-    <t>xiaoxiang17</t>
-  </si>
-  <si>
-    <t>xiaoxiang18</t>
-  </si>
-  <si>
-    <t>小怪头像品质</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss头像品质</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>dajie21</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>dajie22</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>dajie23</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huoshan11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huoshan12</t>
+  </si>
+  <si>
+    <t>huoshan13</t>
+  </si>
+  <si>
+    <t>huoshan14</t>
+  </si>
+  <si>
+    <t>huoshan15</t>
+  </si>
+  <si>
+    <t>huoshan16</t>
+  </si>
+  <si>
+    <t>huoshan17</t>
+  </si>
+  <si>
+    <t>huoshan18</t>
+  </si>
+  <si>
+    <t>头盔，中级强化石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器，中级强化石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级强化石
+中级强化石
+武器
+衣服</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物强化石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶石，绿曼陀罗碎片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶石，光哈皮碎片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物强化石，红刺壳碎片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宠物强化石
+宠物进阶石
+红刺壳碎片
+光哈皮碎片
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物强化石，绿花魄碎片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宠物强化石
+宠物进阶石
+绿花魄碎片
+绿曼陀罗碎片
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物强化石，红蜥蜴人碎片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶石，绿河童碎片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宠物强化石
+宠物进阶石
+红蜥蜴人碎片
+绿河童碎片
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物强化石，蓝小丑碎片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶石，蓝蛙鬼碎片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宠物强化石
+宠物进阶石
+蓝小丑碎片
+蓝蛙鬼碎片
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dajie24</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dajie28</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>senlin24</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiang24</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>senlin28</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +1035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,27 +1047,36 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -780,15 +1091,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1059,7 +1370,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1067,16 +1378,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J20"/>
+  <dimension ref="B1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="5" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="24.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
@@ -1100,10 +1413,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
@@ -1113,14 +1426,18 @@
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F2" s="1">
         <f>I2</f>
         <v>1</v>
@@ -1139,13 +1456,16 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F20" si="0">I3</f>
+        <f t="shared" ref="F3:F17" si="0">I3</f>
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -1162,11 +1482,14 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1185,11 +1508,14 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1208,11 +1534,14 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1231,11 +1560,14 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1254,11 +1586,14 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1277,11 +1612,14 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1300,14 +1638,21 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C10" s="3"/>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1316,21 +1661,24 @@
         <v>3</v>
       </c>
       <c r="I10" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1">
-        <v>1082</v>
+        <v>758</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1339,21 +1687,24 @@
         <v>3</v>
       </c>
       <c r="I11" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1">
-        <v>1135</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1362,47 +1713,50 @@
         <v>3</v>
       </c>
       <c r="I12" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1">
-        <v>1145</v>
+        <v>810</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1">
-        <v>758</v>
+        <v>852</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1411,21 +1765,24 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1">
-        <v>766</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -1434,130 +1791,1104 @@
         <v>3</v>
       </c>
       <c r="I15" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1">
-        <v>810</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C17" s="3"/>
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="4"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1">
+        <v>9</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="4">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ref="F18:F25" si="1">I18</f>
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5</v>
+      </c>
+      <c r="J18" s="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5</v>
+      </c>
+      <c r="J19" s="1">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>6</v>
+      </c>
+      <c r="J21" s="1">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="4"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
         <v>7</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J22" s="1">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C18" s="3"/>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>3</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1">
         <v>8</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J23" s="1">
         <v>1152</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C19" s="3"/>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="4"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>3</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1">
         <v>8</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J24" s="1">
         <v>1152</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C20" s="3"/>
-      <c r="D20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="4"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
         <v>6</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I25" s="1">
         <v>9</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J25" s="1">
         <v>1258</v>
       </c>
     </row>
+    <row r="26" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="4">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="4"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B30" s="4"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="4"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="4"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="4"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="36.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="1">
+        <f>I3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F18" si="0">I4</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="4"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="4"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1">
+        <v>9</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="4"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="4"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="4"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="4"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="4">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="4"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="4"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="4"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="4"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="4"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C26"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>